--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2C9AC4-6CB0-4E1B-A930-66E3E4C24426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1117,6 +1116,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1134,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1167,7 +1166,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1189,9 +1188,12 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="33">
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1575,9 +1577,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1721,12 +1720,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -1830,11 +1829,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>33338</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1877,8 +1876,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
-  <autoFilter ref="B6:F23" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
+  <autoFilter ref="B6:F23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1886,11 +1885,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2163,30 +2162,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.53125" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.2" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2199,21 +2198,21 @@
       <c r="I1" s="17"/>
       <c r="AF1" s="17"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57">
         <v>44200</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="58"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -2221,17 +2220,17 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="33">
         <v>0</v>
       </c>
@@ -2242,15 +2241,15 @@
       <c r="L3" s="41"/>
       <c r="M3" s="40"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="34">
         <v>1</v>
       </c>
@@ -2339,7 +2338,7 @@
       <c r="BJ4" s="16"/>
       <c r="BK4" s="16"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -2881,7 +2880,7 @@
       <c r="BJ7" s="35"/>
       <c r="BK7" s="35"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="51" t="s">
         <v>30</v>
@@ -3361,13 +3360,13 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
@@ -3604,7 +3603,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="51" t="s">
         <v>31</v>
@@ -3847,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="51" t="s">
         <v>21</v>
@@ -4088,7 +4087,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="53" t="s">
         <v>32</v>
@@ -4323,7 +4322,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="51" t="s">
         <v>22</v>
@@ -4562,7 +4561,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="50" t="s">
         <v>33</v>
@@ -4801,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="50" t="s">
         <v>23</v>
@@ -5040,7 +5039,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="50" t="s">
         <v>34</v>
@@ -5279,7 +5278,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="50" t="s">
         <v>35</v>
@@ -5350,7 +5349,7 @@
       <c r="BJ18" s="26"/>
       <c r="BK18" s="26"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="49" t="s">
         <v>36</v>
@@ -5421,7 +5420,7 @@
       <c r="BJ19" s="26"/>
       <c r="BK19" s="26"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="48" t="s">
         <v>37</v>
@@ -5495,7 +5494,7 @@
       <c r="BJ20" s="26"/>
       <c r="BK20" s="26"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="48" t="s">
         <v>38</v>
@@ -5566,7 +5565,7 @@
       <c r="BJ21" s="26"/>
       <c r="BK21" s="26"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="48" t="s">
         <v>39</v>
@@ -5637,7 +5636,7 @@
       <c r="BJ22" s="26"/>
       <c r="BK22" s="26"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="50" t="s">
         <v>26</v>
@@ -5708,11 +5707,11 @@
       <c r="BJ23" s="26"/>
       <c r="BK23" s="26"/>
     </row>
-    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
     </row>
   </sheetData>
@@ -5737,107 +5736,107 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:W21 Y21:BK21 H8:BK20 H22:BK23">
-    <cfRule type="expression" dxfId="19" priority="84">
+    <cfRule type="expression" dxfId="20" priority="84">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:W21 Z21 AB21:AD21 H20:AN20 AH21:AO21 AP20 AR19:BK20 AS21:BK21 AQ21 H7:BK18 H19:AQ19">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:Y22 AA22 AD22:AK22 AM22 AO21 AP22 AR22:BK22">
-    <cfRule type="expression" dxfId="16" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="97" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E22+1,H$5&lt;=$E22+$F22-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:Y21 Z22 AA21 AB22:AC22 AD23 AE21:AG21 AH23">
-    <cfRule type="expression" dxfId="15" priority="107">
+    <cfRule type="expression" dxfId="16" priority="107">
       <formula>W$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:Y21 AA21 AE21:AG21">
-    <cfRule type="expression" dxfId="14" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="109" stopIfTrue="1">
       <formula>AND(W$5&gt;=$E19+1,W$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 AB22:AC22">
-    <cfRule type="expression" dxfId="13" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="114" stopIfTrue="1">
       <formula>AND(Y$5&gt;=$E19+1,Y$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23 AH23">
-    <cfRule type="expression" dxfId="12" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="119" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E19+1,AC$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK23 AL22 AN23 AO20">
-    <cfRule type="expression" dxfId="11" priority="121">
+    <cfRule type="expression" dxfId="12" priority="121">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK23 AN23">
-    <cfRule type="expression" dxfId="10" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="124" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E19+1,AH$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL22">
-    <cfRule type="expression" dxfId="9" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="129" stopIfTrue="1">
       <formula>AND(AI$5&gt;=$E19+1,AI$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22">
-    <cfRule type="expression" dxfId="8" priority="131">
+    <cfRule type="expression" dxfId="9" priority="131">
       <formula>AJ$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22">
-    <cfRule type="expression" dxfId="7" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="134" stopIfTrue="1">
       <formula>AND(AJ$5&gt;=$E19+1,AJ$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO20">
-    <cfRule type="expression" dxfId="6" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="139" stopIfTrue="1">
       <formula>AND(AL$5&gt;=$E19+1,AL$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22 AP21 AQ22 AR21">
-    <cfRule type="expression" dxfId="5" priority="141">
+    <cfRule type="expression" dxfId="6" priority="141">
       <formula>AM$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22 AQ22">
-    <cfRule type="expression" dxfId="4" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="145" stopIfTrue="1">
       <formula>AND(AM$5&gt;=$E19+1,AM$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP21 AQ22 AR21">
-    <cfRule type="expression" dxfId="3" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="151" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E19+1,AN$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP21">
-    <cfRule type="expression" dxfId="2" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="156" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E20+1,AN$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="expression" dxfId="1" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="162" stopIfTrue="1">
       <formula>AND(AQ$5&gt;=$E19+1,AQ$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:AC23 AE23:AG23 AI23:AJ23 AL23:AM23 AO23:BK23">
-    <cfRule type="expression" dxfId="0" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="230" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5861,11 +5860,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>33338</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>185738</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -5943,35 +5942,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.19921875" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9.19921875" style="7"/>
+    <col min="1" max="1" width="87.1796875" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.2" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>

--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -1192,6 +1192,42 @@
   </cellStyles>
   <dxfs count="33">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1541,42 +1577,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1885,7 +1885,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="2"/>
     <tableColumn id="3" name="Affecté à"/>
     <tableColumn id="4" name="Avancement"/>
     <tableColumn id="5" name="Début"/>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3372,14 +3372,14 @@
         <v>0</v>
       </c>
       <c r="E10" s="23">
-        <v>44200</v>
+        <v>44207</v>
       </c>
       <c r="F10" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I10" s="26" t="str">
@@ -3406,10 +3406,7 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O10" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="O10" s="47"/>
       <c r="P10" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
@@ -5722,7 +5719,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D23">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5735,103 +5732,103 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:W21 Y21:BK21 H8:BK20 H22:BK23">
-    <cfRule type="expression" dxfId="20" priority="84">
+  <conditionalFormatting sqref="H21:W21 Y21:BK21 H22:BK23 H8:BK20">
+    <cfRule type="expression" dxfId="1" priority="85">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:W21 Z21 AB21:AD21 H20:AN20 AH21:AO21 AP20 AR19:BK20 AS21:BK21 AQ21 H7:BK18 H19:AQ19">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="H21:W21 Z21 AB21:AD21 H20:AN20 AH21:AO21 AP20 AR19:BK20 AS21:BK21 AQ21 H19:AQ19 H7:BK18">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:Y22 AA22 AD22:AK22 AM22 AO21 AP22 AR22:BK22">
-    <cfRule type="expression" dxfId="17" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="98" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E22+1,H$5&lt;=$E22+$F22-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:Y21 Z22 AA21 AB22:AC22 AD23 AE21:AG21 AH23">
-    <cfRule type="expression" dxfId="16" priority="107">
+    <cfRule type="expression" dxfId="18" priority="108">
       <formula>W$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:Y21 AA21 AE21:AG21">
-    <cfRule type="expression" dxfId="15" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="110" stopIfTrue="1">
       <formula>AND(W$5&gt;=$E19+1,W$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 AB22:AC22">
-    <cfRule type="expression" dxfId="14" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="115" stopIfTrue="1">
       <formula>AND(Y$5&gt;=$E19+1,Y$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23 AH23">
-    <cfRule type="expression" dxfId="13" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="120" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E19+1,AC$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK23 AL22 AN23 AO20">
-    <cfRule type="expression" dxfId="12" priority="121">
+    <cfRule type="expression" dxfId="14" priority="122">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK23 AN23">
-    <cfRule type="expression" dxfId="11" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="125" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E19+1,AH$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL22">
-    <cfRule type="expression" dxfId="10" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="130" stopIfTrue="1">
       <formula>AND(AI$5&gt;=$E19+1,AI$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22">
-    <cfRule type="expression" dxfId="9" priority="131">
+    <cfRule type="expression" dxfId="11" priority="132">
       <formula>AJ$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22">
-    <cfRule type="expression" dxfId="8" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="135" stopIfTrue="1">
       <formula>AND(AJ$5&gt;=$E19+1,AJ$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO20">
-    <cfRule type="expression" dxfId="7" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="140" stopIfTrue="1">
       <formula>AND(AL$5&gt;=$E19+1,AL$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22 AP21 AQ22 AR21">
-    <cfRule type="expression" dxfId="6" priority="141">
+    <cfRule type="expression" dxfId="8" priority="142">
       <formula>AM$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22 AQ22">
-    <cfRule type="expression" dxfId="5" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="146" stopIfTrue="1">
       <formula>AND(AM$5&gt;=$E19+1,AM$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP21 AQ22 AR21">
-    <cfRule type="expression" dxfId="4" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="152" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E19+1,AN$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP21">
-    <cfRule type="expression" dxfId="3" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="157" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E20+1,AN$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="expression" dxfId="2" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="163" stopIfTrue="1">
       <formula>AND(AQ$5&gt;=$E19+1,AQ$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:AC23 AE23:AG23 AI23:AJ23 AL23:AM23 AO23:BK23">
-    <cfRule type="expression" dxfId="1" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="231" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5898,7 +5895,7 @@
           <xm:sqref>D6:D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
+          <x14:cfRule type="iconSet" priority="9" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
             <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5917,7 +5914,7 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="239" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="240" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -1192,42 +1192,6 @@
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1577,6 +1541,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1885,7 +1885,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon" dataDxfId="2"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
     <tableColumn id="3" name="Affecté à"/>
     <tableColumn id="4" name="Avancement"/>
     <tableColumn id="5" name="Début"/>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I10" s="26" t="str">
@@ -3406,7 +3406,10 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O10" s="47"/>
+      <c r="O10" s="26">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
+      </c>
       <c r="P10" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
@@ -5733,102 +5736,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:W21 Y21:BK21 H22:BK23 H8:BK20">
-    <cfRule type="expression" dxfId="1" priority="85">
+    <cfRule type="expression" dxfId="20" priority="85">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:W21 Z21 AB21:AD21 H20:AN20 AH21:AO21 AP20 AR19:BK20 AS21:BK21 AQ21 H19:AQ19 H7:BK18">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:Y22 AA22 AD22:AK22 AM22 AO21 AP22 AR22:BK22">
-    <cfRule type="expression" dxfId="19" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="98" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E22+1,H$5&lt;=$E22+$F22-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:Y21 Z22 AA21 AB22:AC22 AD23 AE21:AG21 AH23">
-    <cfRule type="expression" dxfId="18" priority="108">
+    <cfRule type="expression" dxfId="16" priority="108">
       <formula>W$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:Y21 AA21 AE21:AG21">
-    <cfRule type="expression" dxfId="17" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="110" stopIfTrue="1">
       <formula>AND(W$5&gt;=$E19+1,W$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 AB22:AC22">
-    <cfRule type="expression" dxfId="16" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="115" stopIfTrue="1">
       <formula>AND(Y$5&gt;=$E19+1,Y$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23 AH23">
-    <cfRule type="expression" dxfId="15" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="120" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E19+1,AC$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK23 AL22 AN23 AO20">
-    <cfRule type="expression" dxfId="14" priority="122">
+    <cfRule type="expression" dxfId="12" priority="122">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK23 AN23">
-    <cfRule type="expression" dxfId="13" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="125" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E19+1,AH$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL22">
-    <cfRule type="expression" dxfId="12" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="130" stopIfTrue="1">
       <formula>AND(AI$5&gt;=$E19+1,AI$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22">
-    <cfRule type="expression" dxfId="11" priority="132">
+    <cfRule type="expression" dxfId="9" priority="132">
       <formula>AJ$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22">
-    <cfRule type="expression" dxfId="10" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="135" stopIfTrue="1">
       <formula>AND(AJ$5&gt;=$E19+1,AJ$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO20">
-    <cfRule type="expression" dxfId="9" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="140" stopIfTrue="1">
       <formula>AND(AL$5&gt;=$E19+1,AL$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22 AP21 AQ22 AR21">
-    <cfRule type="expression" dxfId="8" priority="142">
+    <cfRule type="expression" dxfId="6" priority="142">
       <formula>AM$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22 AQ22">
-    <cfRule type="expression" dxfId="7" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="146" stopIfTrue="1">
       <formula>AND(AM$5&gt;=$E19+1,AM$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP21 AQ22 AR21">
-    <cfRule type="expression" dxfId="6" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="152" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E19+1,AN$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP21">
-    <cfRule type="expression" dxfId="5" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="157" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E20+1,AN$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="expression" dxfId="4" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="163" stopIfTrue="1">
       <formula>AND(AQ$5&gt;=$E19+1,AQ$5&lt;=$E19+$F19-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:AC23 AE23:AG23 AI23:AJ23 AL23:AM23 AO23:BK23">
-    <cfRule type="expression" dxfId="3" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="231" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AB3390-3AA9-48E1-ADA8-D7AC5BDCE4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="415"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -177,11 +178,14 @@
   <si>
     <t>QUENTIN &amp; AMINE</t>
   </si>
+  <si>
+    <t>QUENTIN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1166,7 +1170,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1188,7 +1192,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1720,12 +1724,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -1829,11 +1833,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>184150</xdr:colOff>
+          <xdr:colOff>185738</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1876,8 +1880,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
-  <autoFilter ref="B6:F23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
+  <autoFilter ref="B6:F23" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1885,11 +1889,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2162,30 +2166,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="63" width="3.54296875" customWidth="1"/>
-    <col min="68" max="69" width="10.26953125"/>
+    <col min="7" max="7" width="2.73046875" customWidth="1"/>
+    <col min="8" max="63" width="3.53125" customWidth="1"/>
+    <col min="68" max="69" width="10.265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2202,7 @@
       <c r="I1" s="17"/>
       <c r="AF1" s="17"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2220,7 +2224,7 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2241,7 +2245,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="40"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -2338,7 +2342,7 @@
       <c r="BJ4" s="16"/>
       <c r="BK4" s="16"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -2880,7 +2884,7 @@
       <c r="BJ7" s="35"/>
       <c r="BK7" s="35"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="51" t="s">
         <v>30</v>
@@ -3360,13 +3364,13 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
@@ -3603,7 +3607,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="51" t="s">
         <v>31</v>
@@ -3846,7 +3850,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11"/>
       <c r="B12" s="51" t="s">
         <v>21</v>
@@ -4087,7 +4091,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="53" t="s">
         <v>32</v>
@@ -4322,7 +4326,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="51" t="s">
         <v>22</v>
@@ -4561,7 +4565,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="50" t="s">
         <v>33</v>
@@ -4800,7 +4804,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="50" t="s">
         <v>23</v>
@@ -5039,7 +5043,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="50" t="s">
         <v>34</v>
@@ -5278,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="50" t="s">
         <v>35</v>
@@ -5349,7 +5353,7 @@
       <c r="BJ18" s="26"/>
       <c r="BK18" s="26"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="49" t="s">
         <v>36</v>
@@ -5420,7 +5424,7 @@
       <c r="BJ19" s="26"/>
       <c r="BK19" s="26"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="48" t="s">
         <v>37</v>
@@ -5494,7 +5498,7 @@
       <c r="BJ20" s="26"/>
       <c r="BK20" s="26"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="48" t="s">
         <v>38</v>
@@ -5565,7 +5569,7 @@
       <c r="BJ21" s="26"/>
       <c r="BK21" s="26"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="48" t="s">
         <v>39</v>
@@ -5636,7 +5640,7 @@
       <c r="BJ22" s="26"/>
       <c r="BK22" s="26"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="50" t="s">
         <v>26</v>
@@ -5707,11 +5711,11 @@
       <c r="BJ23" s="26"/>
       <c r="BK23" s="26"/>
     </row>
-    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="5"/>
     </row>
   </sheetData>
@@ -5836,7 +5840,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5860,11 +5864,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>184150</xdr:colOff>
+                    <xdr:colOff>185738</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -5942,35 +5946,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="87.19921875" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="9.19921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>

--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AB3390-3AA9-48E1-ADA8-D7AC5BDCE4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831523E3-CD45-4255-BD28-751853918F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>QUENTIN &amp; AMINE</t>
-  </si>
-  <si>
-    <t>QUENTIN</t>
   </si>
 </sst>
 </file>
@@ -2172,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3370,10 +3367,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D10" s="22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="23">
         <v>44207</v>

--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831523E3-CD45-4255-BD28-751853918F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C621C6-B2EA-41D2-8506-A975449DB992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2170,7 +2170,7 @@
   <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3133,12 +3133,12 @@
         <v>44200</v>
       </c>
       <c r="F9" s="42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="26">
+      <c r="H9" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I9" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
@@ -3619,12 +3619,12 @@
         <v>44200</v>
       </c>
       <c r="F11" s="42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="26">
+      <c r="H11" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I11" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>

--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C621C6-B2EA-41D2-8506-A975449DB992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A1828D-283D-4380-B5AC-04B042E07D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -2169,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3856,11 +3856,13 @@
         <v>25</v>
       </c>
       <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="23">
+        <v>44207</v>
+      </c>
       <c r="F12" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="47" t="str">
@@ -3891,9 +3893,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O12" s="47" t="str">
+      <c r="O12" s="47">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P12" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
@@ -4328,13 +4330,17 @@
       <c r="B14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>0.7</v>
+      </c>
+      <c r="E14" s="23">
+        <v>44207</v>
+      </c>
       <c r="F14" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="26" t="str">
@@ -4365,9 +4371,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O14" s="47" t="str">
+      <c r="O14" s="47">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P14" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>

--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A1828D-283D-4380-B5AC-04B042E07D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D053CD0B-80E3-4B68-BF9B-07002ADDB7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
-    <sheet name="À propos" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Aujourd’hui" localSheetId="0">TODAY()</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -96,26 +95,6 @@
     <t>Nombre de jours</t>
   </si>
   <si>
-    <t>À propos de ce modèle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce modèle fournit un moyen simple de créer un diagramme de Gantt pour vous aider à visualiser et à suivre votre projet. Entrez simplement la description de vos tâches, leur avancement exprimé en pourcentage d’accomplissement, leur date de début et le nombre de jours pour leur accomplissement. Le diagramme de Gantt est mis à jour automatiquement. Une barre de défilement vous permet de parcourir la chronologie. Insérez des tâches en insérant des lignes.
-Personnalisez l’aspect du diagramme en modifiant les formats conditionnels. 
-Les dates antérieures au jour en cours sont grisées dans la chronologie.
-</t>
-  </si>
-  <si>
-    <t>Instructions pour les lecteurs d’écran</t>
-  </si>
-  <si>
-    <t>Ce classeur contient deux feuilles de calcul. 
-Diagramme de Gantt
-À propos
-Les instructions relatives à chaque feuille de calcul figurent dans la colonne A à partir de la cellule A1. Elles sont rédigées en texte masqué. Chaque étape vous explique comment utiliser les informations décrites dans la ligne. Les étapes suivantes sont décrites dans les cellules A2, A3, etc. sauf mention contraire. Par exemple, l’instruction peut indiquer de « consulter la cellule A6 » pour l’étape suivante. 
-Ce texte masqué n’est pas imprimé.
-Pour supprimer ces instructions de la feuille de calcul, supprimez simplement la colonne A.</t>
-  </si>
-  <si>
     <t>Création de l'arborescence</t>
   </si>
   <si>
@@ -178,6 +157,12 @@
   <si>
     <t>QUENTIN &amp; AMINE</t>
   </si>
+  <si>
+    <t>QUENTIN</t>
+  </si>
+  <si>
+    <t>AMINE</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -251,12 +236,6 @@
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -920,63 +899,63 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -992,31 +971,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,20 +1011,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1065,77 +1030,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="8" applyFill="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="15" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="15" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="9" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="3" xfId="9" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="4" xfId="9" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="4" xfId="9" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2170,12 +2135,12 @@
   <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="7" customWidth="1"/>
     <col min="2" max="2" width="26.73046875" customWidth="1"/>
     <col min="3" max="3" width="20.53125" customWidth="1"/>
     <col min="4" max="4" width="12.796875" customWidth="1"/>
@@ -2187,3536 +2152,3550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>28</v>
+      <c r="B1" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
       <c r="F1" s="6"/>
-      <c r="I1" s="17"/>
-      <c r="AF1" s="17"/>
+      <c r="I1" s="13"/>
+      <c r="AF1" s="13"/>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51">
         <v>44200</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="F2" s="52"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="33">
+      <c r="D3" s="50"/>
+      <c r="E3" s="27">
         <v>0</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="34">
+      <c r="D4" s="54"/>
+      <c r="E4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="25">
         <f>Marqueur_Jalon</f>
         <v>1</v>
       </c>
-      <c r="H4" s="16" t="str">
+      <c r="H4" s="12" t="str">
         <f ca="1">TEXT(H5,"mmmm")</f>
         <v>janvier</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16" t="str">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="str">
         <f ca="1">IF(TEXT(O5,"mmmm")=H4,"",TEXT(O5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16" t="str">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12" t="str">
         <f ca="1">IF(OR(TEXT(V5,"mmmm")=O4,TEXT(V5,"mmmm")=H4),"",TEXT(V5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16" t="str">
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16" t="str">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
         <v>février</v>
       </c>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16" t="str">
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12" t="str">
         <f ca="1">IF(OR(TEXT(AQ5,"mmmm")=AJ4,TEXT(AQ5,"mmmm")=AC4,TEXT(AQ5,"mmmm")=V4,TEXT(AQ5,"mmmm")=O4),"",TEXT(AQ5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16" t="str">
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12" t="str">
         <f ca="1">IF(OR(TEXT(AX5,"mmmm")=AQ4,TEXT(AX5,"mmmm")=AJ4,TEXT(AX5,"mmmm")=AC4,TEXT(AX5,"mmmm")=V4),"",TEXT(AX5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16" t="str">
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12" t="str">
         <f ca="1">IF(OR(TEXT(BE5,"mmmm")=AX4,TEXT(BE5,"mmmm")=AQ4,TEXT(BE5,"mmmm")=AJ4,TEXT(BE5,"mmmm")=AC4),"",TEXT(BE5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
     </row>
     <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="43">
+      <c r="B5" s="26"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="37">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
         <v>44200</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="38">
         <f ca="1">H5+1</f>
         <v>44201</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="39">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
         <v>44202</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="39">
         <f ca="1">J5+1</f>
         <v>44203</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44204</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44205</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44206</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="39">
         <f ca="1">N5+1</f>
         <v>44207</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="39">
         <f ca="1">O5+1</f>
         <v>44208</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44209</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44210</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44211</v>
       </c>
-      <c r="T5" s="45">
+      <c r="T5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44212</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44213</v>
       </c>
-      <c r="V5" s="45">
+      <c r="V5" s="39">
         <f ca="1">U5+1</f>
         <v>44214</v>
       </c>
-      <c r="W5" s="45">
+      <c r="W5" s="39">
         <f ca="1">V5+1</f>
         <v>44215</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44216</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44217</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44218</v>
       </c>
-      <c r="AA5" s="45">
+      <c r="AA5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44219</v>
       </c>
-      <c r="AB5" s="45">
+      <c r="AB5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44220</v>
       </c>
-      <c r="AC5" s="45">
+      <c r="AC5" s="39">
         <f ca="1">AB5+1</f>
         <v>44221</v>
       </c>
-      <c r="AD5" s="45">
+      <c r="AD5" s="39">
         <f ca="1">AC5+1</f>
         <v>44222</v>
       </c>
-      <c r="AE5" s="45">
+      <c r="AE5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44223</v>
       </c>
-      <c r="AF5" s="45">
+      <c r="AF5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44224</v>
       </c>
-      <c r="AG5" s="45">
+      <c r="AG5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44225</v>
       </c>
-      <c r="AH5" s="45">
+      <c r="AH5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44226</v>
       </c>
-      <c r="AI5" s="45">
+      <c r="AI5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44227</v>
       </c>
-      <c r="AJ5" s="45">
+      <c r="AJ5" s="39">
         <f ca="1">AI5+1</f>
         <v>44228</v>
       </c>
-      <c r="AK5" s="45">
+      <c r="AK5" s="39">
         <f ca="1">AJ5+1</f>
         <v>44229</v>
       </c>
-      <c r="AL5" s="45">
+      <c r="AL5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44230</v>
       </c>
-      <c r="AM5" s="45">
+      <c r="AM5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44231</v>
       </c>
-      <c r="AN5" s="45">
+      <c r="AN5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44232</v>
       </c>
-      <c r="AO5" s="45">
+      <c r="AO5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44233</v>
       </c>
-      <c r="AP5" s="45">
+      <c r="AP5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44234</v>
       </c>
-      <c r="AQ5" s="45">
+      <c r="AQ5" s="39">
         <f ca="1">AP5+1</f>
         <v>44235</v>
       </c>
-      <c r="AR5" s="45">
+      <c r="AR5" s="39">
         <f ca="1">AQ5+1</f>
         <v>44236</v>
       </c>
-      <c r="AS5" s="45">
+      <c r="AS5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44237</v>
       </c>
-      <c r="AT5" s="45">
+      <c r="AT5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44238</v>
       </c>
-      <c r="AU5" s="45">
+      <c r="AU5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44239</v>
       </c>
-      <c r="AV5" s="45">
+      <c r="AV5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44240</v>
       </c>
-      <c r="AW5" s="45">
+      <c r="AW5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>44241</v>
       </c>
-      <c r="AX5" s="45">
+      <c r="AX5" s="39">
         <f ca="1">AW5+1</f>
         <v>44242</v>
       </c>
-      <c r="AY5" s="45">
+      <c r="AY5" s="39">
         <f ca="1">AX5+1</f>
         <v>44243</v>
       </c>
-      <c r="AZ5" s="45">
+      <c r="AZ5" s="39">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
         <v>44244</v>
       </c>
-      <c r="BA5" s="45">
+      <c r="BA5" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>44245</v>
       </c>
-      <c r="BB5" s="45">
+      <c r="BB5" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>44246</v>
       </c>
-      <c r="BC5" s="45">
+      <c r="BC5" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>44247</v>
       </c>
-      <c r="BD5" s="45">
+      <c r="BD5" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>44248</v>
       </c>
-      <c r="BE5" s="45">
+      <c r="BE5" s="39">
         <f ca="1">BD5+1</f>
         <v>44249</v>
       </c>
-      <c r="BF5" s="45">
+      <c r="BF5" s="39">
         <f ca="1">BE5+1</f>
         <v>44250</v>
       </c>
-      <c r="BG5" s="45">
+      <c r="BG5" s="39">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
         <v>44251</v>
       </c>
-      <c r="BH5" s="45">
+      <c r="BH5" s="39">
         <f t="shared" ca="1" si="2"/>
         <v>44252</v>
       </c>
-      <c r="BI5" s="45">
+      <c r="BI5" s="39">
         <f t="shared" ca="1" si="2"/>
         <v>44253</v>
       </c>
-      <c r="BJ5" s="45">
+      <c r="BJ5" s="39">
         <f t="shared" ca="1" si="2"/>
         <v>44254</v>
       </c>
-      <c r="BK5" s="46">
+      <c r="BK5" s="40">
         <f t="shared" ca="1" si="2"/>
         <v>44255</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="36" t="str">
+      <c r="G6" s="15"/>
+      <c r="H6" s="30" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
         <v>l</v>
       </c>
-      <c r="I6" s="37" t="str">
+      <c r="I6" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="J6" s="39" t="str">
+      <c r="J6" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="K6" s="38" t="str">
+      <c r="K6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="L6" s="38" t="str">
+      <c r="L6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="M6" s="38" t="str">
+      <c r="M6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="N6" s="38" t="str">
+      <c r="N6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="O6" s="38" t="str">
+      <c r="O6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="P6" s="38" t="str">
+      <c r="P6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="Q6" s="38" t="str">
+      <c r="Q6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="R6" s="38" t="str">
+      <c r="R6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="S6" s="38" t="str">
+      <c r="S6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="T6" s="38" t="str">
+      <c r="T6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="U6" s="38" t="str">
+      <c r="U6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="V6" s="38" t="str">
+      <c r="V6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="W6" s="38" t="str">
+      <c r="W6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="X6" s="38" t="str">
+      <c r="X6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="Y6" s="38" t="str">
+      <c r="Y6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="Z6" s="38" t="str">
+      <c r="Z6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="AA6" s="38" t="str">
+      <c r="AA6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="AB6" s="38" t="str">
+      <c r="AB6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="AC6" s="38" t="str">
+      <c r="AC6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="AD6" s="38" t="str">
+      <c r="AD6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AE6" s="38" t="str">
+      <c r="AE6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AF6" s="38" t="str">
+      <c r="AF6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="AG6" s="38" t="str">
+      <c r="AG6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="AH6" s="38" t="str">
+      <c r="AH6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="AI6" s="38" t="str">
+      <c r="AI6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="AJ6" s="38" t="str">
+      <c r="AJ6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="AK6" s="38" t="str">
+      <c r="AK6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AL6" s="38" t="str">
+      <c r="AL6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AM6" s="38" t="str">
+      <c r="AM6" s="32" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="AN6" s="38" t="str">
+      <c r="AN6" s="32" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
         <v>v</v>
       </c>
-      <c r="AO6" s="38" t="str">
+      <c r="AO6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AP6" s="38" t="str">
+      <c r="AP6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AQ6" s="38" t="str">
+      <c r="AQ6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AR6" s="38" t="str">
+      <c r="AR6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AS6" s="38" t="str">
+      <c r="AS6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AT6" s="38" t="str">
+      <c r="AT6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AU6" s="38" t="str">
+      <c r="AU6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AV6" s="38" t="str">
+      <c r="AV6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AW6" s="38" t="str">
+      <c r="AW6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AX6" s="38" t="str">
+      <c r="AX6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AY6" s="38" t="str">
+      <c r="AY6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AZ6" s="38" t="str">
+      <c r="AZ6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BA6" s="38" t="str">
+      <c r="BA6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="BB6" s="38" t="str">
+      <c r="BB6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="BC6" s="38" t="str">
+      <c r="BC6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="BD6" s="38" t="str">
+      <c r="BD6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="BE6" s="38" t="str">
+      <c r="BE6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="BF6" s="38" t="str">
+      <c r="BF6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BG6" s="38" t="str">
+      <c r="BG6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BH6" s="38" t="str">
+      <c r="BH6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="BI6" s="38" t="str">
+      <c r="BI6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="BJ6" s="38" t="str">
+      <c r="BJ6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="BK6" s="38" t="str">
+      <c r="BK6" s="32" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" s="35"/>
-      <c r="BB7" s="35"/>
-      <c r="BC7" s="35"/>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="35"/>
-      <c r="BF7" s="35"/>
-      <c r="BG7" s="35"/>
-      <c r="BH7" s="35"/>
-      <c r="BI7" s="35"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="35"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29"/>
+      <c r="BC7" s="29"/>
+      <c r="BD7" s="29"/>
+      <c r="BE7" s="29"/>
+      <c r="BF7" s="29"/>
+      <c r="BG7" s="29"/>
+      <c r="BH7" s="29"/>
+      <c r="BI7" s="29"/>
+      <c r="BJ7" s="29"/>
+      <c r="BK7" s="29"/>
     </row>
     <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="26" t="str">
+      <c r="B8" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J8" s="26" t="str">
+      <c r="J8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L8" s="26" t="str">
+      <c r="L8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M8" s="26" t="str">
+      <c r="M8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N8" s="26" t="str">
+      <c r="N8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O8" s="26" t="str">
+      <c r="O8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P8" s="26" t="str">
+      <c r="P8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q8" s="26" t="str">
+      <c r="Q8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R8" s="26" t="str">
+      <c r="R8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S8" s="26" t="str">
+      <c r="S8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T8" s="26" t="str">
+      <c r="T8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U8" s="26" t="str">
+      <c r="U8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V8" s="26" t="str">
+      <c r="V8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W8" s="26" t="str">
+      <c r="W8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X8" s="26" t="str">
+      <c r="X8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y8" s="26" t="str">
+      <c r="Y8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z8" s="26" t="str">
+      <c r="Z8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA8" s="26" t="str">
+      <c r="AA8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="26" t="str">
+      <c r="AB8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC8" s="26" t="str">
+      <c r="AC8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD8" s="26" t="str">
+      <c r="AD8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE8" s="26" t="str">
+      <c r="AE8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF8" s="26" t="str">
+      <c r="AF8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG8" s="26" t="str">
+      <c r="AG8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH8" s="26" t="str">
+      <c r="AH8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI8" s="26" t="str">
+      <c r="AI8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ8" s="26" t="str">
+      <c r="AJ8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK8" s="26" t="str">
+      <c r="AK8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL8" s="26" t="str">
+      <c r="AL8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM8" s="26" t="str">
+      <c r="AM8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN8" s="26" t="str">
+      <c r="AN8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO8" s="26" t="str">
+      <c r="AO8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP8" s="26" t="str">
+      <c r="AP8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ8" s="26" t="str">
+      <c r="AQ8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR8" s="26" t="str">
+      <c r="AR8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS8" s="26" t="str">
+      <c r="AS8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT8" s="26" t="str">
+      <c r="AT8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU8" s="26" t="str">
+      <c r="AU8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV8" s="26" t="str">
+      <c r="AV8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW8" s="26" t="str">
+      <c r="AW8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX8" s="26" t="str">
+      <c r="AX8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY8" s="26" t="str">
+      <c r="AY8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ8" s="26" t="str">
+      <c r="AZ8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA8" s="26" t="str">
+      <c r="BA8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB8" s="26" t="str">
+      <c r="BB8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC8" s="26" t="str">
+      <c r="BC8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD8" s="26" t="str">
+      <c r="BD8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE8" s="26" t="str">
+      <c r="BE8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF8" s="26" t="str">
+      <c r="BF8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG8" s="26" t="str">
+      <c r="BG8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH8" s="26" t="str">
+      <c r="BH8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI8" s="26" t="str">
+      <c r="BI8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ8" s="26" t="str">
+      <c r="BJ8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK8" s="26" t="str">
+      <c r="BK8" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="A9" s="8"/>
+      <c r="B9" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="18">
         <v>0.3</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>44200</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="36">
         <v>7</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="26" t="str">
+      <c r="G9" s="14"/>
+      <c r="H9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J9" s="26" t="str">
+      <c r="J9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L9" s="47" t="str">
+      <c r="L9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M9" s="47" t="str">
+      <c r="M9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N9" s="47" t="str">
+      <c r="N9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O9" s="47" t="str">
+      <c r="O9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P9" s="47" t="str">
+      <c r="P9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q9" s="47" t="str">
+      <c r="Q9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R9" s="47" t="str">
+      <c r="R9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S9" s="47" t="str">
+      <c r="S9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T9" s="47" t="str">
+      <c r="T9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U9" s="47" t="str">
+      <c r="U9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V9" s="47" t="str">
+      <c r="V9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W9" s="47" t="str">
+      <c r="W9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X9" s="47" t="str">
+      <c r="X9" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y9" s="26" t="str">
+      <c r="Y9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z9" s="26" t="str">
+      <c r="Z9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA9" s="26" t="str">
+      <c r="AA9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB9" s="26" t="str">
+      <c r="AB9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC9" s="26" t="str">
+      <c r="AC9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD9" s="26" t="str">
+      <c r="AD9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE9" s="26" t="str">
+      <c r="AE9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF9" s="26" t="str">
+      <c r="AF9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG9" s="26" t="str">
+      <c r="AG9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH9" s="26" t="str">
+      <c r="AH9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI9" s="26" t="str">
+      <c r="AI9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ9" s="26" t="str">
+      <c r="AJ9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK9" s="26" t="str">
+      <c r="AK9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL9" s="26" t="str">
+      <c r="AL9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM9" s="26" t="str">
+      <c r="AM9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN9" s="26" t="str">
+      <c r="AN9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO9" s="26" t="str">
+      <c r="AO9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP9" s="26" t="str">
+      <c r="AP9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ9" s="26" t="str">
+      <c r="AQ9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR9" s="26" t="str">
+      <c r="AR9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS9" s="26" t="str">
+      <c r="AS9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT9" s="26" t="str">
+      <c r="AT9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU9" s="26" t="str">
+      <c r="AU9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV9" s="26" t="str">
+      <c r="AV9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW9" s="26" t="str">
+      <c r="AW9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX9" s="26" t="str">
+      <c r="AX9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY9" s="26" t="str">
+      <c r="AY9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ9" s="26" t="str">
+      <c r="AZ9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA9" s="26" t="str">
+      <c r="BA9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB9" s="26" t="str">
+      <c r="BB9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC9" s="26" t="str">
+      <c r="BC9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD9" s="26" t="str">
+      <c r="BD9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE9" s="26" t="str">
+      <c r="BE9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF9" s="26" t="str">
+      <c r="BF9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG9" s="26" t="str">
+      <c r="BG9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH9" s="26" t="str">
+      <c r="BH9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI9" s="26" t="str">
+      <c r="BI9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ9" s="26" t="str">
+      <c r="BJ9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK9" s="26" t="str">
+      <c r="BK9" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="A10" s="8"/>
+      <c r="B10" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="18">
         <v>0.1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>44207</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="36">
         <v>1</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="26" t="str">
+      <c r="G10" s="14"/>
+      <c r="H10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I10" s="26" t="str">
+      <c r="I10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J10" s="26" t="str">
+      <c r="J10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L10" s="47" t="str">
+      <c r="L10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="47" t="str">
+      <c r="M10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N10" s="47" t="str">
+      <c r="N10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="22">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v>1</v>
       </c>
-      <c r="P10" s="47" t="str">
+      <c r="P10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="47" t="str">
+      <c r="Q10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R10" s="47" t="str">
+      <c r="R10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S10" s="47" t="str">
+      <c r="S10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T10" s="47" t="str">
+      <c r="T10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U10" s="47" t="str">
+      <c r="U10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V10" s="47" t="str">
+      <c r="V10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W10" s="47" t="str">
+      <c r="W10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X10" s="47" t="str">
+      <c r="X10" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y10" s="26" t="str">
+      <c r="Y10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z10" s="26" t="str">
+      <c r="Z10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA10" s="26" t="str">
+      <c r="AA10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB10" s="26" t="str">
+      <c r="AB10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC10" s="26" t="str">
+      <c r="AC10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD10" s="26" t="str">
+      <c r="AD10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE10" s="26" t="str">
+      <c r="AE10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF10" s="26" t="str">
+      <c r="AF10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG10" s="26" t="str">
+      <c r="AG10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH10" s="26" t="str">
+      <c r="AH10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI10" s="26" t="str">
+      <c r="AI10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ10" s="26" t="str">
+      <c r="AJ10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK10" s="26" t="str">
+      <c r="AK10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL10" s="26" t="str">
+      <c r="AL10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM10" s="26" t="str">
+      <c r="AM10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN10" s="26" t="str">
+      <c r="AN10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO10" s="26" t="str">
+      <c r="AO10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP10" s="26" t="str">
+      <c r="AP10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ10" s="26" t="str">
+      <c r="AQ10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR10" s="26" t="str">
+      <c r="AR10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS10" s="26" t="str">
+      <c r="AS10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT10" s="26" t="str">
+      <c r="AT10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU10" s="26" t="str">
+      <c r="AU10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV10" s="26" t="str">
+      <c r="AV10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW10" s="26" t="str">
+      <c r="AW10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX10" s="26" t="str">
+      <c r="AX10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY10" s="26" t="str">
+      <c r="AY10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ10" s="26" t="str">
+      <c r="AZ10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA10" s="26" t="str">
+      <c r="BA10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB10" s="26" t="str">
+      <c r="BB10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC10" s="26" t="str">
+      <c r="BC10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD10" s="26" t="str">
+      <c r="BD10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE10" s="26" t="str">
+      <c r="BE10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF10" s="26" t="str">
+      <c r="BF10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG10" s="26" t="str">
+      <c r="BG10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH10" s="26" t="str">
+      <c r="BH10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI10" s="26" t="str">
+      <c r="BI10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ10" s="26" t="str">
+      <c r="BJ10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK10" s="26" t="str">
+      <c r="BK10" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="A11" s="7"/>
+      <c r="B11" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="18">
         <v>1</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>44200</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="36">
         <v>7</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="26" t="str">
+      <c r="G11" s="14"/>
+      <c r="H11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I11" s="47" t="str">
+      <c r="I11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J11" s="47" t="str">
+      <c r="J11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K11" s="47" t="str">
+      <c r="K11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L11" s="47" t="str">
+      <c r="L11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M11" s="47" t="str">
+      <c r="M11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N11" s="47" t="str">
+      <c r="N11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O11" s="47" t="str">
+      <c r="O11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P11" s="47" t="str">
+      <c r="P11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q11" s="47" t="str">
+      <c r="Q11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R11" s="47" t="str">
+      <c r="R11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S11" s="47" t="str">
+      <c r="S11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T11" s="47" t="str">
+      <c r="T11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U11" s="47" t="str">
+      <c r="U11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V11" s="47" t="str">
+      <c r="V11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W11" s="47" t="str">
+      <c r="W11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X11" s="47" t="str">
+      <c r="X11" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y11" s="26" t="str">
+      <c r="Y11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z11" s="26" t="str">
+      <c r="Z11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA11" s="26" t="str">
+      <c r="AA11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB11" s="26" t="str">
+      <c r="AB11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC11" s="26" t="str">
+      <c r="AC11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD11" s="26" t="str">
+      <c r="AD11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE11" s="26" t="str">
+      <c r="AE11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF11" s="26" t="str">
+      <c r="AF11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG11" s="26" t="str">
+      <c r="AG11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH11" s="26" t="str">
+      <c r="AH11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI11" s="26" t="str">
+      <c r="AI11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ11" s="26" t="str">
+      <c r="AJ11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK11" s="26" t="str">
+      <c r="AK11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL11" s="26" t="str">
+      <c r="AL11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM11" s="26" t="str">
+      <c r="AM11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN11" s="26" t="str">
+      <c r="AN11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO11" s="26" t="str">
+      <c r="AO11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP11" s="26" t="str">
+      <c r="AP11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ11" s="26" t="str">
+      <c r="AQ11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR11" s="26" t="str">
+      <c r="AR11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS11" s="26" t="str">
+      <c r="AS11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT11" s="26" t="str">
+      <c r="AT11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU11" s="26" t="str">
+      <c r="AU11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV11" s="26" t="str">
+      <c r="AV11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW11" s="26" t="str">
+      <c r="AW11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX11" s="26" t="str">
+      <c r="AX11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY11" s="26" t="str">
+      <c r="AY11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ11" s="26" t="str">
+      <c r="AZ11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA11" s="26" t="str">
+      <c r="BA11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB11" s="26" t="str">
+      <c r="BB11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC11" s="26" t="str">
+      <c r="BC11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD11" s="26" t="str">
+      <c r="BD11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE11" s="26" t="str">
+      <c r="BE11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF11" s="26" t="str">
+      <c r="BF11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG11" s="26" t="str">
+      <c r="BG11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH11" s="26" t="str">
+      <c r="BH11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI11" s="26" t="str">
+      <c r="BI11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ11" s="26" t="str">
+      <c r="BJ11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK11" s="26" t="str">
+      <c r="BK11" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>0.8</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>44207</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="36">
         <v>1</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="47" t="str">
+      <c r="G12" s="14"/>
+      <c r="H12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I12" s="26" t="str">
+      <c r="I12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J12" s="26" t="str">
+      <c r="J12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K12" s="26" t="str">
+      <c r="K12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L12" s="47" t="str">
+      <c r="L12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M12" s="47" t="str">
+      <c r="M12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N12" s="47" t="str">
+      <c r="N12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="41">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v>1</v>
       </c>
-      <c r="P12" s="47" t="str">
+      <c r="P12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q12" s="47" t="str">
+      <c r="Q12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R12" s="47" t="str">
+      <c r="R12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S12" s="47" t="str">
+      <c r="S12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T12" s="47" t="str">
+      <c r="T12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U12" s="47" t="str">
+      <c r="U12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V12" s="47" t="str">
+      <c r="V12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W12" s="47" t="str">
+      <c r="W12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X12" s="47" t="str">
+      <c r="X12" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y12" s="26" t="str">
+      <c r="Y12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z12" s="26" t="str">
+      <c r="Z12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA12" s="26" t="str">
+      <c r="AA12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB12" s="26" t="str">
+      <c r="AB12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC12" s="26" t="str">
+      <c r="AC12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD12" s="26" t="str">
+      <c r="AD12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE12" s="26" t="str">
+      <c r="AE12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF12" s="26" t="str">
+      <c r="AF12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG12" s="26" t="str">
+      <c r="AG12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH12" s="26" t="str">
+      <c r="AH12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI12" s="26" t="str">
+      <c r="AI12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ12" s="26" t="str">
+      <c r="AJ12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK12" s="26" t="str">
+      <c r="AK12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL12" s="26" t="str">
+      <c r="AL12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM12" s="26" t="str">
+      <c r="AM12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN12" s="26" t="str">
+      <c r="AN12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO12" s="26" t="str">
+      <c r="AO12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP12" s="26" t="str">
+      <c r="AP12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ12" s="26" t="str">
+      <c r="AQ12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR12" s="26" t="str">
+      <c r="AR12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS12" s="26" t="str">
+      <c r="AS12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT12" s="26" t="str">
+      <c r="AT12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU12" s="26" t="str">
+      <c r="AU12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV12" s="26" t="str">
+      <c r="AV12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW12" s="26" t="str">
+      <c r="AW12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX12" s="26" t="str">
+      <c r="AX12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY12" s="26" t="str">
+      <c r="AY12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ12" s="26" t="str">
+      <c r="AZ12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA12" s="26" t="str">
+      <c r="BA12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB12" s="26" t="str">
+      <c r="BB12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC12" s="26" t="str">
+      <c r="BC12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD12" s="26" t="str">
+      <c r="BD12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE12" s="26" t="str">
+      <c r="BE12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF12" s="26" t="str">
+      <c r="BF12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG12" s="26" t="str">
+      <c r="BG12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH12" s="26" t="str">
+      <c r="BH12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI12" s="26" t="str">
+      <c r="BI12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ12" s="26" t="str">
+      <c r="BJ12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK12" s="26" t="str">
+      <c r="BK12" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="26" t="str">
+      <c r="A13" s="8"/>
+      <c r="B13" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I13" s="26" t="str">
+      <c r="I13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J13" s="26" t="str">
+      <c r="J13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K13" s="26" t="str">
+      <c r="K13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="47" t="str">
+      <c r="L13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="47" t="str">
+      <c r="M13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N13" s="47" t="str">
+      <c r="N13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O13" s="47" t="str">
+      <c r="O13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P13" s="47" t="str">
+      <c r="P13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="47" t="str">
+      <c r="Q13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R13" s="47" t="str">
+      <c r="R13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S13" s="47" t="str">
+      <c r="S13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T13" s="47" t="str">
+      <c r="T13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U13" s="47" t="str">
+      <c r="U13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V13" s="47" t="str">
+      <c r="V13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W13" s="47" t="str">
+      <c r="W13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X13" s="47" t="str">
+      <c r="X13" s="41" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y13" s="26" t="str">
+      <c r="Y13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z13" s="26" t="str">
+      <c r="Z13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA13" s="26" t="str">
+      <c r="AA13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB13" s="26" t="str">
+      <c r="AB13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC13" s="26" t="str">
+      <c r="AC13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD13" s="26" t="str">
+      <c r="AD13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE13" s="26" t="str">
+      <c r="AE13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF13" s="26" t="str">
+      <c r="AF13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG13" s="26" t="str">
+      <c r="AG13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH13" s="26" t="str">
+      <c r="AH13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI13" s="26" t="str">
+      <c r="AI13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ13" s="26" t="str">
+      <c r="AJ13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK13" s="26" t="str">
+      <c r="AK13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL13" s="26" t="str">
+      <c r="AL13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM13" s="26" t="str">
+      <c r="AM13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN13" s="26" t="str">
+      <c r="AN13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO13" s="26" t="str">
+      <c r="AO13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP13" s="26" t="str">
+      <c r="AP13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ13" s="26" t="str">
+      <c r="AQ13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR13" s="26" t="str">
+      <c r="AR13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS13" s="26" t="str">
+      <c r="AS13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT13" s="26" t="str">
+      <c r="AT13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU13" s="26" t="str">
+      <c r="AU13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV13" s="26" t="str">
+      <c r="AV13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW13" s="26" t="str">
+      <c r="AW13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX13" s="26" t="str">
+      <c r="AX13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY13" s="26" t="str">
+      <c r="AY13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ13" s="26" t="str">
+      <c r="AZ13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA13" s="26" t="str">
+      <c r="BA13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB13" s="26" t="str">
+      <c r="BB13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC13" s="26" t="str">
+      <c r="BC13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD13" s="26" t="str">
+      <c r="BD13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE13" s="26" t="str">
+      <c r="BE13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF13" s="26" t="str">
+      <c r="BF13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG13" s="26" t="str">
+      <c r="BG13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH13" s="26" t="str">
+      <c r="BH13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI13" s="26" t="str">
+      <c r="BI13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ13" s="26" t="str">
+      <c r="BJ13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK13" s="26" t="str">
+      <c r="BK13" s="22" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="A14" s="8"/>
+      <c r="B14" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="18">
         <v>0.7</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>44207</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="36">
         <v>1</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="26" t="str">
+      <c r="G14" s="14"/>
+      <c r="H14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I14" s="26" t="str">
+      <c r="I14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J14" s="26" t="str">
+      <c r="J14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K14" s="26" t="str">
+      <c r="K14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L14" s="47" t="str">
+      <c r="L14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M14" s="47" t="str">
+      <c r="M14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N14" s="47" t="str">
+      <c r="N14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="41">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v>1</v>
       </c>
-      <c r="P14" s="47" t="str">
+      <c r="P14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q14" s="47" t="str">
+      <c r="Q14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R14" s="47" t="str">
+      <c r="R14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S14" s="47" t="str">
+      <c r="S14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T14" s="47" t="str">
+      <c r="T14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U14" s="47" t="str">
+      <c r="U14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V14" s="47" t="str">
+      <c r="V14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W14" s="47" t="str">
+      <c r="W14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X14" s="47" t="str">
+      <c r="X14" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="26" t="str">
+      <c r="Y14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="26" t="str">
+      <c r="Z14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA14" s="26" t="str">
+      <c r="AA14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB14" s="26" t="str">
+      <c r="AB14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC14" s="26" t="str">
+      <c r="AC14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD14" s="26" t="str">
+      <c r="AD14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE14" s="26" t="str">
+      <c r="AE14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF14" s="26" t="str">
+      <c r="AF14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG14" s="26" t="str">
+      <c r="AG14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH14" s="26" t="str">
+      <c r="AH14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI14" s="26" t="str">
+      <c r="AI14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ14" s="26" t="str">
+      <c r="AJ14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK14" s="26" t="str">
+      <c r="AK14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL14" s="26" t="str">
+      <c r="AL14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM14" s="26" t="str">
+      <c r="AM14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN14" s="26" t="str">
+      <c r="AN14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO14" s="26" t="str">
+      <c r="AO14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP14" s="26" t="str">
+      <c r="AP14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ14" s="26" t="str">
+      <c r="AQ14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR14" s="26" t="str">
+      <c r="AR14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS14" s="26" t="str">
+      <c r="AS14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT14" s="26" t="str">
+      <c r="AT14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU14" s="26" t="str">
+      <c r="AU14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV14" s="26" t="str">
+      <c r="AV14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW14" s="26" t="str">
+      <c r="AW14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX14" s="26" t="str">
+      <c r="AX14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY14" s="26" t="str">
+      <c r="AY14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ14" s="26" t="str">
+      <c r="AZ14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA14" s="26" t="str">
+      <c r="BA14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB14" s="26" t="str">
+      <c r="BB14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC14" s="26" t="str">
+      <c r="BC14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD14" s="26" t="str">
+      <c r="BD14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE14" s="26" t="str">
+      <c r="BE14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF14" s="26" t="str">
+      <c r="BF14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG14" s="26" t="str">
+      <c r="BG14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH14" s="26" t="str">
+      <c r="BH14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI14" s="26" t="str">
+      <c r="BI14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ14" s="26" t="str">
+      <c r="BJ14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK14" s="26" t="str">
+      <c r="BK14" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22">
+      <c r="A15" s="7"/>
+      <c r="B15" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="42">
+      <c r="E15" s="19"/>
+      <c r="F15" s="36">
         <v>0</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="26" t="str">
+      <c r="G15" s="14"/>
+      <c r="H15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J15" s="26" t="str">
+      <c r="J15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K15" s="26" t="str">
+      <c r="K15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L15" s="47" t="str">
+      <c r="L15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="47" t="str">
+      <c r="M15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N15" s="47" t="str">
+      <c r="N15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O15" s="47" t="str">
+      <c r="O15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P15" s="47" t="str">
+      <c r="P15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="47" t="str">
+      <c r="Q15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R15" s="47" t="str">
+      <c r="R15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S15" s="47" t="str">
+      <c r="S15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T15" s="47" t="str">
+      <c r="T15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U15" s="47" t="str">
+      <c r="U15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V15" s="47" t="str">
+      <c r="V15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W15" s="47" t="str">
+      <c r="W15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X15" s="47" t="str">
+      <c r="X15" s="41" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y15" s="26" t="str">
+      <c r="Y15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z15" s="26" t="str">
+      <c r="Z15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA15" s="26" t="str">
+      <c r="AA15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB15" s="26" t="str">
+      <c r="AB15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC15" s="26" t="str">
+      <c r="AC15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD15" s="26" t="str">
+      <c r="AD15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE15" s="26" t="str">
+      <c r="AE15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF15" s="26" t="str">
+      <c r="AF15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG15" s="26" t="str">
+      <c r="AG15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH15" s="26" t="str">
+      <c r="AH15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI15" s="26" t="str">
+      <c r="AI15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ15" s="26" t="str">
+      <c r="AJ15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK15" s="26" t="str">
+      <c r="AK15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL15" s="26" t="str">
+      <c r="AL15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM15" s="26" t="str">
+      <c r="AM15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN15" s="26" t="str">
+      <c r="AN15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO15" s="26" t="str">
+      <c r="AO15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP15" s="26" t="str">
+      <c r="AP15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ15" s="26" t="str">
+      <c r="AQ15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR15" s="26" t="str">
+      <c r="AR15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS15" s="26" t="str">
+      <c r="AS15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT15" s="26" t="str">
+      <c r="AT15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU15" s="26" t="str">
+      <c r="AU15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV15" s="26" t="str">
+      <c r="AV15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW15" s="26" t="str">
+      <c r="AW15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX15" s="26" t="str">
+      <c r="AX15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY15" s="26" t="str">
+      <c r="AY15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ15" s="26" t="str">
+      <c r="AZ15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA15" s="26" t="str">
+      <c r="BA15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB15" s="26" t="str">
+      <c r="BB15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC15" s="26" t="str">
+      <c r="BC15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD15" s="26" t="str">
+      <c r="BD15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE15" s="26" t="str">
+      <c r="BE15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF15" s="26" t="str">
+      <c r="BF15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG15" s="26" t="str">
+      <c r="BG15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH15" s="26" t="str">
+      <c r="BH15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI15" s="26" t="str">
+      <c r="BI15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ15" s="26" t="str">
+      <c r="BJ15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK15" s="26" t="str">
+      <c r="BK15" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="22">
+      <c r="A16" s="7"/>
+      <c r="B16" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="18">
         <v>0</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="42">
+      <c r="E16" s="19"/>
+      <c r="F16" s="36">
         <v>0</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="26" t="str">
+      <c r="G16" s="14"/>
+      <c r="H16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I16" s="26" t="str">
+      <c r="I16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J16" s="26" t="str">
+      <c r="J16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K16" s="26" t="str">
+      <c r="K16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L16" s="26" t="str">
+      <c r="L16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="26" t="str">
+      <c r="M16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N16" s="26" t="str">
+      <c r="N16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O16" s="26" t="str">
+      <c r="O16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P16" s="26" t="str">
+      <c r="P16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q16" s="26" t="str">
+      <c r="Q16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R16" s="26" t="str">
+      <c r="R16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S16" s="26" t="str">
+      <c r="S16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T16" s="26" t="str">
+      <c r="T16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U16" s="26" t="str">
+      <c r="U16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V16" s="26" t="str">
+      <c r="V16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W16" s="26" t="str">
+      <c r="W16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X16" s="26" t="str">
+      <c r="X16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y16" s="26" t="str">
+      <c r="Y16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z16" s="26" t="str">
+      <c r="Z16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA16" s="26" t="str">
+      <c r="AA16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB16" s="26" t="str">
+      <c r="AB16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC16" s="26" t="str">
+      <c r="AC16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD16" s="26" t="str">
+      <c r="AD16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE16" s="26" t="str">
+      <c r="AE16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF16" s="26" t="str">
+      <c r="AF16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG16" s="26" t="str">
+      <c r="AG16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH16" s="26" t="str">
+      <c r="AH16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI16" s="26" t="str">
+      <c r="AI16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ16" s="26" t="str">
+      <c r="AJ16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK16" s="26" t="str">
+      <c r="AK16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL16" s="26" t="str">
+      <c r="AL16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM16" s="26" t="str">
+      <c r="AM16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN16" s="26" t="str">
+      <c r="AN16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO16" s="26" t="str">
+      <c r="AO16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP16" s="26" t="str">
+      <c r="AP16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ16" s="26" t="str">
+      <c r="AQ16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR16" s="26" t="str">
+      <c r="AR16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS16" s="26" t="str">
+      <c r="AS16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT16" s="26" t="str">
+      <c r="AT16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU16" s="26" t="str">
+      <c r="AU16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV16" s="26" t="str">
+      <c r="AV16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW16" s="26" t="str">
+      <c r="AW16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX16" s="26" t="str">
+      <c r="AX16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY16" s="26" t="str">
+      <c r="AY16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ16" s="26" t="str">
+      <c r="AZ16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA16" s="26" t="str">
+      <c r="BA16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB16" s="26" t="str">
+      <c r="BB16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC16" s="26" t="str">
+      <c r="BC16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD16" s="26" t="str">
+      <c r="BD16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE16" s="26" t="str">
+      <c r="BE16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF16" s="26" t="str">
+      <c r="BF16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG16" s="26" t="str">
+      <c r="BG16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH16" s="26" t="str">
+      <c r="BH16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI16" s="26" t="str">
+      <c r="BI16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ16" s="26" t="str">
+      <c r="BJ16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK16" s="26" t="str">
+      <c r="BK16" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="22">
+      <c r="A17" s="7"/>
+      <c r="B17" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="42">
+      <c r="E17" s="19"/>
+      <c r="F17" s="36">
         <v>0</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="26" t="str">
+      <c r="G17" s="14"/>
+      <c r="H17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J17" s="26" t="str">
+      <c r="J17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K17" s="26" t="str">
+      <c r="K17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L17" s="26" t="str">
+      <c r="L17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M17" s="26" t="str">
+      <c r="M17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N17" s="26" t="str">
+      <c r="N17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O17" s="26" t="str">
+      <c r="O17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P17" s="26" t="str">
+      <c r="P17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="26" t="str">
+      <c r="Q17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R17" s="26" t="str">
+      <c r="R17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S17" s="26" t="str">
+      <c r="S17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T17" s="26" t="str">
+      <c r="T17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U17" s="26" t="str">
+      <c r="U17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V17" s="26" t="str">
+      <c r="V17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W17" s="26" t="str">
+      <c r="W17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X17" s="26" t="str">
+      <c r="X17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y17" s="26" t="str">
+      <c r="Y17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z17" s="26" t="str">
+      <c r="Z17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA17" s="26" t="str">
+      <c r="AA17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB17" s="26" t="str">
+      <c r="AB17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC17" s="26" t="str">
+      <c r="AC17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD17" s="26" t="str">
+      <c r="AD17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE17" s="26" t="str">
+      <c r="AE17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF17" s="26" t="str">
+      <c r="AF17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG17" s="26" t="str">
+      <c r="AG17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH17" s="26" t="str">
+      <c r="AH17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI17" s="26" t="str">
+      <c r="AI17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ17" s="26" t="str">
+      <c r="AJ17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK17" s="26" t="str">
+      <c r="AK17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL17" s="26" t="str">
+      <c r="AL17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM17" s="26" t="str">
+      <c r="AM17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN17" s="26" t="str">
+      <c r="AN17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO17" s="26" t="str">
+      <c r="AO17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP17" s="26" t="str">
+      <c r="AP17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ17" s="26" t="str">
+      <c r="AQ17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR17" s="26" t="str">
+      <c r="AR17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS17" s="26" t="str">
+      <c r="AS17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT17" s="26" t="str">
+      <c r="AT17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU17" s="26" t="str">
+      <c r="AU17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV17" s="26" t="str">
+      <c r="AV17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW17" s="26" t="str">
+      <c r="AW17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX17" s="26" t="str">
+      <c r="AX17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY17" s="26" t="str">
+      <c r="AY17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ17" s="26" t="str">
+      <c r="AZ17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA17" s="26" t="str">
+      <c r="BA17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB17" s="26" t="str">
+      <c r="BB17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC17" s="26" t="str">
+      <c r="BC17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD17" s="26" t="str">
+      <c r="BD17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE17" s="26" t="str">
+      <c r="BE17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF17" s="26" t="str">
+      <c r="BF17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG17" s="26" t="str">
+      <c r="BG17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH17" s="26" t="str">
+      <c r="BH17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI17" s="26" t="str">
+      <c r="BI17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ17" s="26" t="str">
+      <c r="BJ17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK17" s="26" t="str">
+      <c r="BK17" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="22">
+      <c r="A18" s="7"/>
+      <c r="B18" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="42">
+      <c r="E18" s="19"/>
+      <c r="F18" s="36">
         <v>0</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="26"/>
-      <c r="BE18" s="26"/>
-      <c r="BF18" s="26"/>
-      <c r="BG18" s="26"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="26"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="22"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="22"/>
+      <c r="BD18" s="22"/>
+      <c r="BE18" s="22"/>
+      <c r="BF18" s="22"/>
+      <c r="BG18" s="22"/>
+      <c r="BH18" s="22"/>
+      <c r="BI18" s="22"/>
+      <c r="BJ18" s="22"/>
+      <c r="BK18" s="22"/>
     </row>
     <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="22">
+      <c r="A19" s="7"/>
+      <c r="B19" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="42">
+      <c r="E19" s="19"/>
+      <c r="F19" s="36">
         <v>0</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="26"/>
-      <c r="BC19" s="26"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="26"/>
-      <c r="BF19" s="26"/>
-      <c r="BG19" s="26"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="26"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="22"/>
+      <c r="BC19" s="22"/>
+      <c r="BD19" s="22"/>
+      <c r="BE19" s="22"/>
+      <c r="BF19" s="22"/>
+      <c r="BG19" s="22"/>
+      <c r="BH19" s="22"/>
+      <c r="BI19" s="22"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="22"/>
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="22">
+      <c r="A20" s="7"/>
+      <c r="B20" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="42">
+      <c r="E20" s="19"/>
+      <c r="F20" s="36">
         <v>0</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26" t="str">
+      <c r="G20" s="14"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="26"/>
-      <c r="BD20" s="26"/>
-      <c r="BE20" s="26"/>
-      <c r="BF20" s="26"/>
-      <c r="BG20" s="26"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20" s="26"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+      <c r="BD20" s="22"/>
+      <c r="BE20" s="22"/>
+      <c r="BF20" s="22"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="22"/>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="22"/>
     </row>
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="22">
+      <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="42">
+      <c r="E21" s="19"/>
+      <c r="F21" s="36">
         <v>0</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="22">
+      <c r="A22" s="7"/>
+      <c r="B22" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="18">
         <v>0</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="42">
+      <c r="E22" s="19"/>
+      <c r="F22" s="36">
         <v>0</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="26"/>
-      <c r="BE22" s="26"/>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="26"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="26"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="22"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="22"/>
+      <c r="BI22" s="22"/>
+      <c r="BJ22" s="22"/>
+      <c r="BK22" s="22"/>
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="22">
+      <c r="A23" s="7"/>
+      <c r="B23" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="18">
         <v>0</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="42">
+      <c r="E23" s="19"/>
+      <c r="F23" s="36">
         <v>0</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="26"/>
-      <c r="BD23" s="26"/>
-      <c r="BE23" s="26"/>
-      <c r="BF23" s="26"/>
-      <c r="BG23" s="26"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="26"/>
-      <c r="BJ23" s="26"/>
-      <c r="BK23" s="26"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="22"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="22"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="22"/>
+      <c r="BJ23" s="22"/>
+      <c r="BK23" s="22"/>
     </row>
     <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="5"/>
@@ -5946,44 +5925,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="87.19921875" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9.19921875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/appli-lycee/Gantt.xlsx
+++ b/appli-lycee/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D053CD0B-80E3-4B68-BF9B-07002ADDB7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -167,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1132,7 +1131,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1154,7 +1153,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1686,12 +1685,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -1795,11 +1794,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>33338</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1842,8 +1841,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
-  <autoFilter ref="B6:F23" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
+  <autoFilter ref="B6:F23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1851,11 +1850,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2128,30 +2127,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.53125" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2163,7 @@
       <c r="I1" s="13"/>
       <c r="AF1" s="13"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2186,7 +2185,7 @@
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2207,7 +2206,7 @@
       <c r="L3" s="35"/>
       <c r="M3" s="34"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2304,7 +2303,7 @@
       <c r="BJ4" s="12"/>
       <c r="BK4" s="12"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -2535,7 +2534,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2846,7 +2845,7 @@
       <c r="BJ7" s="29"/>
       <c r="BK7" s="29"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="45" t="s">
         <v>26</v>
@@ -3326,7 +3325,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="45" t="s">
         <v>16</v>
@@ -3569,7 +3568,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="45" t="s">
         <v>27</v>
@@ -3812,7 +3811,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="45" t="s">
         <v>17</v>
@@ -4055,7 +4054,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="47" t="s">
         <v>28</v>
@@ -4290,7 +4289,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="45" t="s">
         <v>18</v>
@@ -4533,7 +4532,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="44" t="s">
         <v>29</v>
@@ -4774,7 +4773,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="44" t="s">
         <v>19</v>
@@ -5015,7 +5014,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="44" t="s">
         <v>30</v>
@@ -5256,7 +5255,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="44" t="s">
         <v>31</v>
@@ -5329,7 +5328,7 @@
       <c r="BJ18" s="22"/>
       <c r="BK18" s="22"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="43" t="s">
         <v>32</v>
@@ -5402,7 +5401,7 @@
       <c r="BJ19" s="22"/>
       <c r="BK19" s="22"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="42" t="s">
         <v>33</v>
@@ -5478,7 +5477,7 @@
       <c r="BJ20" s="22"/>
       <c r="BK20" s="22"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="42" t="s">
         <v>34</v>
@@ -5551,7 +5550,7 @@
       <c r="BJ21" s="22"/>
       <c r="BK21" s="22"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="42" t="s">
         <v>35</v>
@@ -5622,7 +5621,7 @@
       <c r="BJ22" s="22"/>
       <c r="BK22" s="22"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="44" t="s">
         <v>22</v>
@@ -5693,11 +5692,11 @@
       <c r="BJ23" s="22"/>
       <c r="BK23" s="22"/>
     </row>
-    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
     </row>
   </sheetData>
@@ -5822,7 +5821,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5846,11 +5845,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>33338</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>185738</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
